--- a/public/alertes.xlsx
+++ b/public/alertes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moud/Desktop/web/catastrophe/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A3983D-16F8-3E48-B475-5E04DFFC5DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E939E48D-A2E1-2F4F-8F0B-D884ACFB53D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{6D24E822-6DF4-754F-8EC9-D3AB1CEA82E7}"/>
+    <workbookView xWindow="3180" yWindow="2000" windowWidth="19360" windowHeight="16940" xr2:uid="{6D24E822-6DF4-754F-8EC9-D3AB1CEA82E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
   <si>
     <t>Agent</t>
   </si>
@@ -192,6 +192,102 @@
   </si>
   <si>
     <t>Péla</t>
+  </si>
+  <si>
+    <t>9.1881858</t>
+  </si>
+  <si>
+    <t>8.5648128</t>
+  </si>
+  <si>
+    <t>8.5580749</t>
+  </si>
+  <si>
+    <t>8.5474269</t>
+  </si>
+  <si>
+    <t>7.7477485</t>
+  </si>
+  <si>
+    <t>7.7580152</t>
+  </si>
+  <si>
+    <t>7.7521369</t>
+  </si>
+  <si>
+    <t>7.612925</t>
+  </si>
+  <si>
+    <t>12.4602722</t>
+  </si>
+  <si>
+    <t>10.6431597</t>
+  </si>
+  <si>
+    <t>11.4229354</t>
+  </si>
+  <si>
+    <t>10.3907779</t>
+  </si>
+  <si>
+    <t>10.3867126</t>
+  </si>
+  <si>
+    <t>9.7197861</t>
+  </si>
+  <si>
+    <t>10.6433567</t>
+  </si>
+  <si>
+    <t>10.6491081</t>
+  </si>
+  <si>
+    <t>-10.1057265</t>
+  </si>
+  <si>
+    <t>-10.1319438</t>
+  </si>
+  <si>
+    <t>-10.1270605</t>
+  </si>
+  <si>
+    <t>-9.4651328</t>
+  </si>
+  <si>
+    <t>-8.8156898</t>
+  </si>
+  <si>
+    <t>-8.8088713</t>
+  </si>
+  <si>
+    <t>-8.8219386</t>
+  </si>
+  <si>
+    <t>-9.118955</t>
+  </si>
+  <si>
+    <t>-13.3703315</t>
+  </si>
+  <si>
+    <t>-8.7433106</t>
+  </si>
+  <si>
+    <t>-9.1599629</t>
+  </si>
+  <si>
+    <t>-9.2701776</t>
+  </si>
+  <si>
+    <t>-9.2695228</t>
+  </si>
+  <si>
+    <t>-13.3727788</t>
+  </si>
+  <si>
+    <t>-9.8885533</t>
+  </si>
+  <si>
+    <t>-9.8885743</t>
   </si>
 </sst>
 </file>
@@ -253,8 +349,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{879EA6C9-FBF3-9543-AB75-3A4D21A01849}" name="Tableau1" displayName="Tableau1" ref="A1:G18" totalsRowShown="0">
-  <autoFilter ref="A1:G18" xr:uid="{879EA6C9-FBF3-9543-AB75-3A4D21A01849}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{879EA6C9-FBF3-9543-AB75-3A4D21A01849}" name="Tableau1" displayName="Tableau1" ref="A1:G20" totalsRowShown="0">
+  <autoFilter ref="A1:G20" xr:uid="{879EA6C9-FBF3-9543-AB75-3A4D21A01849}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{BA9804FE-6137-1F46-BD7F-F1B5B6C0D8C6}" name="Agent"/>
     <tableColumn id="2" xr3:uid="{C9A51776-4D02-B847-A54C-BC8A14F10A09}" name="Aléa"/>
@@ -567,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F47432D-1774-834B-A2B4-714DDEAD32B5}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,11 +727,11 @@
       <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="F3">
-        <v>9.1881857999999994</v>
-      </c>
-      <c r="G3">
-        <v>-10.105726499999999</v>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -654,11 +750,11 @@
       <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="F4">
-        <v>9.1881857999999994</v>
-      </c>
-      <c r="G4">
-        <v>-10.1319438</v>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -677,11 +773,11 @@
       <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="F5">
-        <v>9.1881857999999994</v>
-      </c>
-      <c r="G5">
-        <v>-10.127060500000001</v>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -700,11 +796,11 @@
       <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="F6">
-        <v>9.1881857999999994</v>
-      </c>
-      <c r="G6">
-        <v>-9.4651327999999992</v>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -723,11 +819,11 @@
       <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="F7">
-        <v>9.1881857999999994</v>
-      </c>
-      <c r="G7">
-        <v>-8.8156897999999995</v>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -746,11 +842,11 @@
       <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="F8">
-        <v>9.1881857999999994</v>
-      </c>
-      <c r="G8">
-        <v>-9.1189549999999997</v>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -769,11 +865,11 @@
       <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="F9">
-        <v>9.1881857999999994</v>
-      </c>
-      <c r="G9">
-        <v>-13.370331500000001</v>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -792,11 +888,11 @@
       <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="F10">
-        <v>9.1881857999999994</v>
-      </c>
-      <c r="G10">
-        <v>-8.7433105999999992</v>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -815,11 +911,11 @@
       <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="F11">
-        <v>9.1881857999999994</v>
-      </c>
-      <c r="G11">
-        <v>-9.1599629</v>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -838,11 +934,11 @@
       <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="F12">
-        <v>9.1881857999999994</v>
-      </c>
-      <c r="G12">
-        <v>-9.2701776000000002</v>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -861,11 +957,11 @@
       <c r="E13" t="s">
         <v>43</v>
       </c>
-      <c r="F13">
-        <v>9.1881857999999994</v>
-      </c>
-      <c r="G13">
-        <v>-9.2695228000000007</v>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -884,11 +980,11 @@
       <c r="E14" t="s">
         <v>44</v>
       </c>
-      <c r="F14">
-        <v>9.1881857999999994</v>
-      </c>
-      <c r="G14">
-        <v>-13.372778800000001</v>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -907,11 +1003,11 @@
       <c r="E15" t="s">
         <v>45</v>
       </c>
-      <c r="F15">
-        <v>9.1881857999999994</v>
-      </c>
-      <c r="G15">
-        <v>-9.8885532999999999</v>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -930,11 +1026,11 @@
       <c r="E16" t="s">
         <v>46</v>
       </c>
-      <c r="F16">
-        <v>9.1881857999999994</v>
-      </c>
-      <c r="G16">
-        <v>-9.8885743000000002</v>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -953,11 +1049,11 @@
       <c r="E17" t="s">
         <v>47</v>
       </c>
-      <c r="F17">
-        <v>9.1881857999999994</v>
-      </c>
-      <c r="G17">
-        <v>-13.1018043</v>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -973,11 +1069,11 @@
       <c r="D18" t="s">
         <v>34</v>
       </c>
-      <c r="F18">
-        <v>9.1881857999999994</v>
-      </c>
-      <c r="G18">
-        <v>-13.1018043</v>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
